--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3061722.194908801</v>
+        <v>-3062434.496731844</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>106.0589922396498</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>62.8615050624082</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929904</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>174.3513154430307</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>62.26076865912857</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>141.5178820760065</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242248</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256632</v>
+        <v>25.28169700256626</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>188.4979333192471</v>
       </c>
       <c r="F14" t="n">
-        <v>149.2956984382937</v>
+        <v>166.0289796675928</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.7333640750894</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>9.36988737129812</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>93.29716801529543</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
         <v>13.44252716693651</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4979333192471</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U15" t="n">
         <v>59.07980534382081</v>
@@ -1746,10 +1746,10 @@
         <v>62.50065676233444</v>
       </c>
       <c r="W15" t="n">
+        <v>88.55631942394379</v>
+      </c>
+      <c r="X15" t="n">
         <v>188.4979333192471</v>
-      </c>
-      <c r="X15" t="n">
-        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
         <v>45.23602198095782</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>167.008761462474</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>170.9069627150132</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C20" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130291</v>
+        <v>105.7515787130294</v>
       </c>
       <c r="G20" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>11.73464763843459</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>5.948846749374659</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C23" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>136.358847608848</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.4751703839026</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>43.05661780009662</v>
       </c>
       <c r="T24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147506</v>
+        <v>27.52501869147514</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.0322440344472</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818266</v>
+        <v>8.981130875818337</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489291</v>
+        <v>1.486173081489348</v>
       </c>
       <c r="U27" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
-        <v>223.6159002707467</v>
+        <v>103.6347108742774</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147506</v>
+        <v>27.52501869147507</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489291</v>
       </c>
       <c r="U30" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>84.71344696671756</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>8.689102474810678</v>
       </c>
       <c r="Y30" t="n">
         <v>9.899535610024628</v>
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
-        <v>47.8085861010352</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>98.24868495642288</v>
       </c>
       <c r="W33" t="n">
         <v>52.39212318614636</v>
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>136.854070301737</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>174.5344695383637</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>68.28576033689328</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>80.13572180313132</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>74.02359248930517</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>14.67344920068482</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -4059,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.8620894640886</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.5720885092643</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4808,16 +4808,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42319711481442</v>
+        <v>3.551813413473549</v>
       </c>
       <c r="N8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="O8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="P8" t="n">
         <v>6.719070557086891</v>
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="C9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
         <v>3.42319711481442</v>
@@ -4917,16 +4917,16 @@
         <v>12.79699856005391</v>
       </c>
       <c r="V9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="W9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="X9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.687476157245</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="C11" t="n">
-        <v>546.687476157245</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="D11" t="n">
-        <v>546.687476157245</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="E11" t="n">
-        <v>546.687476157245</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="F11" t="n">
-        <v>356.2855233095204</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1552281179549</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554809</v>
+        <v>78.57630442554806</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
@@ -5045,46 +5045,46 @@
         <v>184.7866959522389</v>
       </c>
       <c r="L11" t="n">
-        <v>371.3996499382936</v>
+        <v>231.507538432999</v>
       </c>
       <c r="M11" t="n">
-        <v>452.2615490252409</v>
+        <v>312.3694375199462</v>
       </c>
       <c r="N11" t="n">
-        <v>558.3453697003615</v>
+        <v>498.9823915060009</v>
       </c>
       <c r="O11" t="n">
-        <v>592.5660043930293</v>
+        <v>685.5953454920556</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9917332769886</v>
+        <v>685.5953454920556</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049694</v>
+        <v>704.1243288271094</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0894290049694</v>
+        <v>659.3590588808958</v>
       </c>
       <c r="U11" t="n">
-        <v>737.0894290049694</v>
+        <v>586.6294858106111</v>
       </c>
       <c r="V11" t="n">
-        <v>737.0894290049694</v>
+        <v>586.6294858106111</v>
       </c>
       <c r="W11" t="n">
-        <v>737.0894290049694</v>
+        <v>425.2676679594</v>
       </c>
       <c r="X11" t="n">
-        <v>737.0894290049694</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.687476157245</v>
+        <v>249.1552281179548</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>260.9972365546573</v>
+        <v>24.54436736382064</v>
       </c>
       <c r="C12" t="n">
-        <v>251.5327038563764</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5327038563764</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>77.96949997779086</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>77.96949997779086</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>77.96949997779086</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>77.96949997779086</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
         <v>15.07983466553977</v>
@@ -5121,49 +5121,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073557</v>
+        <v>611.0443776446587</v>
       </c>
       <c r="T12" t="n">
-        <v>703.2188174998582</v>
+        <v>573.8497721371613</v>
       </c>
       <c r="U12" t="n">
-        <v>643.5422464454938</v>
+        <v>514.1732010827968</v>
       </c>
       <c r="V12" t="n">
-        <v>580.4102699178833</v>
+        <v>451.0412245551863</v>
       </c>
       <c r="W12" t="n">
-        <v>490.95944221693</v>
+        <v>260.6392717074619</v>
       </c>
       <c r="X12" t="n">
-        <v>451.3991894023817</v>
+        <v>70.23731885973757</v>
       </c>
       <c r="Y12" t="n">
-        <v>260.9972365546573</v>
+        <v>24.54436736382064</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>51.71326643019286</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>90.5424345454678</v>
+        <v>53.90900278081477</v>
       </c>
       <c r="G13" t="n">
-        <v>90.5424345454678</v>
+        <v>63.262017114471</v>
       </c>
       <c r="H13" t="n">
-        <v>102.743062378885</v>
+        <v>75.46264494788826</v>
       </c>
       <c r="I13" t="n">
-        <v>102.743062378885</v>
+        <v>75.46264494788826</v>
       </c>
       <c r="J13" t="n">
-        <v>118.4445227627993</v>
+        <v>75.46264494788826</v>
       </c>
       <c r="K13" t="n">
-        <v>118.4445227627993</v>
+        <v>185.4697461216273</v>
       </c>
       <c r="L13" t="n">
-        <v>262.9810061886393</v>
+        <v>330.0062295474674</v>
       </c>
       <c r="M13" t="n">
-        <v>262.9810061886393</v>
+        <v>331.0320093814447</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9810061886393</v>
+        <v>331.0320093814447</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423774</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426682</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117132</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.2855233095205</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="C14" t="n">
-        <v>356.2855233095205</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="D14" t="n">
-        <v>356.2855233095205</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="E14" t="n">
-        <v>165.883570461796</v>
+        <v>373.1878275815396</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07983466553977</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="G14" t="n">
         <v>15.07983466553977</v>
@@ -5276,52 +5276,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553977</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>184.7866959522389</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>231.507538432999</v>
+        <v>471.7526286748825</v>
       </c>
       <c r="M14" t="n">
-        <v>312.3694375199462</v>
+        <v>644.4432054486285</v>
       </c>
       <c r="N14" t="n">
-        <v>498.9823915060009</v>
+        <v>719.7710985843208</v>
       </c>
       <c r="O14" t="n">
-        <v>533.2030261986687</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769885</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="U14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="W14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="X14" t="n">
-        <v>737.0894290049692</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.6874761572449</v>
+        <v>563.5897804292641</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.5443673638207</v>
+        <v>118.7839310156343</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553977</v>
+        <v>109.3193983173533</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553977</v>
+        <v>109.3193983173533</v>
       </c>
       <c r="E15" t="n">
         <v>15.07983466553977</v>
@@ -5355,52 +5355,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553969</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142005</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097941</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998542</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q15" t="n">
         <v>753.9917332769885</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769885</v>
+        <v>617.9111264193343</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073556</v>
+        <v>604.3328161497014</v>
       </c>
       <c r="T15" t="n">
-        <v>550.0114701596312</v>
+        <v>567.1382106422039</v>
       </c>
       <c r="U15" t="n">
-        <v>490.3348991052668</v>
+        <v>507.4616395878395</v>
       </c>
       <c r="V15" t="n">
-        <v>427.2029225776562</v>
+        <v>444.3296630602289</v>
       </c>
       <c r="W15" t="n">
-        <v>236.8009697299319</v>
+        <v>354.8788353592756</v>
       </c>
       <c r="X15" t="n">
-        <v>197.2407169153836</v>
+        <v>164.4768825115513</v>
       </c>
       <c r="Y15" t="n">
-        <v>151.5477654194666</v>
+        <v>118.7839310156343</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>27.18003706804298</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>59.8159948313765</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E16" t="n">
-        <v>95.92339654281088</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F16" t="n">
-        <v>134.7525646580858</v>
+        <v>53.90900278081471</v>
       </c>
       <c r="G16" t="n">
-        <v>134.7525646580858</v>
+        <v>63.26201711447089</v>
       </c>
       <c r="H16" t="n">
-        <v>134.7525646580858</v>
+        <v>75.46264494788809</v>
       </c>
       <c r="I16" t="n">
-        <v>147.9149077823375</v>
+        <v>75.46264494788809</v>
       </c>
       <c r="J16" t="n">
-        <v>147.9149077823375</v>
+        <v>75.46264494788809</v>
       </c>
       <c r="K16" t="n">
-        <v>174.3561275427108</v>
+        <v>185.4697461216271</v>
       </c>
       <c r="L16" t="n">
-        <v>318.8926109685508</v>
+        <v>330.0062295474671</v>
       </c>
       <c r="M16" t="n">
-        <v>470.2946957351834</v>
+        <v>481.4083143140997</v>
       </c>
       <c r="N16" t="n">
-        <v>470.2946957351834</v>
+        <v>481.4083143140997</v>
       </c>
       <c r="O16" t="n">
-        <v>470.2946957351834</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351834</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426682</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040794</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210058</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718627</v>
+        <v>294.5907522718626</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116202</v>
@@ -5516,49 +5516,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K17" t="n">
+        <v>15.07983466553977</v>
+      </c>
+      <c r="L17" t="n">
         <v>201.6927886515944</v>
       </c>
-      <c r="L17" t="n">
-        <v>388.3057426376491</v>
-      </c>
       <c r="M17" t="n">
-        <v>469.1676417245964</v>
+        <v>282.5546877385417</v>
       </c>
       <c r="N17" t="n">
+        <v>357.882580874234</v>
+      </c>
+      <c r="O17" t="n">
         <v>544.4955348602887</v>
       </c>
-      <c r="O17" t="n">
-        <v>652.451268987817</v>
-      </c>
       <c r="P17" t="n">
-        <v>652.451268987817</v>
+        <v>731.1084888463433</v>
       </c>
       <c r="Q17" t="n">
-        <v>652.451268987817</v>
+        <v>731.1084888463433</v>
       </c>
       <c r="R17" t="n">
-        <v>753.9917332769885</v>
+        <v>731.1084888463433</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769885</v>
+        <v>731.1084888463433</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769885</v>
+        <v>731.1084888463433</v>
       </c>
       <c r="U17" t="n">
         <v>753.9917332769885</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530776</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>204.4921089325761</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C18" t="n">
         <v>15.07983466553977</v>
@@ -5595,7 +5595,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
@@ -5613,31 +5613,31 @@
         <v>753.9917332769885</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769885</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769885</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769885</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9917332769885</v>
+        <v>556.6509361119297</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9917332769885</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5897804292641</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5897804292641</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="X18" t="n">
-        <v>373.1878275815398</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.1878275815398</v>
+        <v>193.6156875924749</v>
       </c>
     </row>
     <row r="19">
@@ -5729,73 +5729,73 @@
         <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993305</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5663113459877</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5663113459877</v>
+        <v>388.3057426376491</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2871538267478</v>
+        <v>435.0265851184092</v>
       </c>
       <c r="M20" t="n">
-        <v>385.1490529136951</v>
+        <v>515.8884842053565</v>
       </c>
       <c r="N20" t="n">
-        <v>460.4769460493874</v>
+        <v>591.2163773410488</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6975807420552</v>
+        <v>625.4370120337164</v>
       </c>
       <c r="P20" t="n">
-        <v>583.2198993829663</v>
+        <v>625.4370120337164</v>
       </c>
       <c r="Q20" t="n">
-        <v>583.2198993829663</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R20" t="n">
-        <v>684.7603636721377</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530776</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.6430385441253</v>
+        <v>187.7131303372702</v>
       </c>
       <c r="C21" t="n">
-        <v>188.6430385441253</v>
+        <v>187.7131303372702</v>
       </c>
       <c r="D21" t="n">
-        <v>188.6430385441253</v>
+        <v>26.93301409830198</v>
       </c>
       <c r="E21" t="n">
-        <v>15.07983466553977</v>
+        <v>26.93301409830198</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553977</v>
+        <v>26.93301409830198</v>
       </c>
       <c r="G21" t="n">
         <v>15.07983466553977</v>
@@ -5832,7 +5832,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142006</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
@@ -5841,40 +5841,40 @@
         <v>352.0527264137996</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769886</v>
+        <v>556.6509361119297</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9917332769886</v>
+        <v>366.2489832642053</v>
       </c>
       <c r="U21" t="n">
-        <v>753.9917332769886</v>
+        <v>366.2489832642053</v>
       </c>
       <c r="V21" t="n">
-        <v>563.5897804292642</v>
+        <v>366.2489832642053</v>
       </c>
       <c r="W21" t="n">
-        <v>557.5808443187848</v>
+        <v>366.2489832642053</v>
       </c>
       <c r="X21" t="n">
-        <v>367.1788914710604</v>
+        <v>366.2489832642053</v>
       </c>
       <c r="Y21" t="n">
-        <v>367.1788914710604</v>
+        <v>366.2489832642053</v>
       </c>
     </row>
     <row r="22">
@@ -5966,73 +5966,73 @@
         <v>463.3923242961945</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040789</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="J23" t="n">
-        <v>117.4219847553329</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="K23" t="n">
-        <v>117.4219847553329</v>
+        <v>122.9559907065875</v>
       </c>
       <c r="L23" t="n">
-        <v>164.142827236093</v>
+        <v>169.6768331873476</v>
       </c>
       <c r="M23" t="n">
-        <v>245.0047263230402</v>
+        <v>356.2897871734023</v>
       </c>
       <c r="N23" t="n">
-        <v>431.617680309095</v>
+        <v>431.6176803090946</v>
       </c>
       <c r="O23" t="n">
-        <v>465.8383150017627</v>
+        <v>465.8383150017623</v>
       </c>
       <c r="P23" t="n">
-        <v>465.8383150017627</v>
+        <v>652.451268987817</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.4512689878175</v>
+        <v>652.451268987817</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235038</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>366.2489832642054</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C24" t="n">
-        <v>366.2489832642054</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D24" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F24" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G24" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H24" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097942</v>
@@ -6078,40 +6078,40 @@
         <v>352.0527264137996</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596544</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596544</v>
+        <v>617.9111264193343</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596544</v>
+        <v>574.4195932879236</v>
       </c>
       <c r="T24" t="n">
-        <v>556.6509361119299</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="U24" t="n">
-        <v>556.6509361119299</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="V24" t="n">
-        <v>556.6509361119299</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="W24" t="n">
-        <v>556.6509361119299</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="X24" t="n">
-        <v>366.2489832642054</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="Y24" t="n">
-        <v>366.2489832642054</v>
+        <v>193.6156875924749</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6200,58 +6200,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.898422489612</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874111</v>
+        <v>882.7966579874117</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942532</v>
+        <v>757.2538204942537</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350257</v>
+        <v>597.6637583350262</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471347</v>
       </c>
       <c r="G26" t="n">
         <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845029</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528782</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523992</v>
+        <v>634.0135279523987</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
         <v>1772.589137514411</v>
@@ -6260,16 +6260,16 @@
         <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="G27" t="n">
         <v>35.91669941514207</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741611</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931954</v>
+        <v>709.4955071931953</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512953</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339609</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339609</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339609</v>
+        <v>599.594568612907</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6805912031635</v>
+        <v>598.0933836821097</v>
       </c>
       <c r="U27" t="n">
-        <v>545.0562785800437</v>
+        <v>358.4690710589898</v>
       </c>
       <c r="V27" t="n">
-        <v>319.1816318419156</v>
+        <v>253.7875449233561</v>
       </c>
       <c r="W27" t="n">
-        <v>265.4242247176625</v>
+        <v>200.0301377991028</v>
       </c>
       <c r="X27" t="n">
-        <v>261.5573924798144</v>
+        <v>196.1633055612547</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>82.47399327165041</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D28" t="n">
-        <v>132.6119626298249</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E28" t="n">
-        <v>132.6119626298249</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F28" t="n">
-        <v>132.6119626298249</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6119626298249</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H28" t="n">
-        <v>132.6119626298249</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>180.7574272613005</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J28" t="n">
-        <v>180.7574272613005</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K28" t="n">
-        <v>180.7574272613005</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L28" t="n">
-        <v>180.7574272613005</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M28" t="n">
-        <v>180.7574272613005</v>
+        <v>112.706424068495</v>
       </c>
       <c r="N28" t="n">
-        <v>180.7574272613005</v>
+        <v>112.706424068495</v>
       </c>
       <c r="O28" t="n">
-        <v>180.7574272613005</v>
+        <v>112.706424068495</v>
       </c>
       <c r="P28" t="n">
-        <v>180.7574272613005</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U28" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389705</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514207</v>
@@ -6446,16 +6446,16 @@
         <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350256</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471342</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141569</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845023</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
@@ -6464,13 +6464,13 @@
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528777</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523988</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.225330058107</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
         <v>35.91669941514207</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741611</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931954</v>
+        <v>709.4955071931953</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512953</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512953</v>
+        <v>592.6557242955726</v>
       </c>
       <c r="T30" t="n">
-        <v>575.9782733750425</v>
+        <v>591.1545393647752</v>
       </c>
       <c r="U30" t="n">
-        <v>336.3539607519226</v>
+        <v>351.5302267416554</v>
       </c>
       <c r="V30" t="n">
-        <v>308.9154048010122</v>
+        <v>108.4505086452895</v>
       </c>
       <c r="W30" t="n">
-        <v>223.3462664507925</v>
+        <v>54.69310152103632</v>
       </c>
       <c r="X30" t="n">
-        <v>219.4794342129444</v>
+        <v>45.91623033435886</v>
       </c>
       <c r="Y30" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="31">
@@ -6625,22 +6625,22 @@
         <v>35.91669941514207</v>
       </c>
       <c r="L31" t="n">
-        <v>215.4363043482059</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M31" t="n">
-        <v>215.4363043482059</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="N31" t="n">
-        <v>215.4363043482059</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="O31" t="n">
-        <v>215.4363043482059</v>
+        <v>170.8031857866173</v>
       </c>
       <c r="P31" t="n">
-        <v>215.4363043482059</v>
+        <v>170.8031857866173</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760092</v>
+        <v>256.2082727013259</v>
       </c>
       <c r="R31" t="n">
         <v>266.1625141760092</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510277</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806677</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734627</v>
+        <v>594.0635360734632</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581614</v>
+        <v>403.2687994581619</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977749</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
         <v>35.66075944394099</v>
@@ -6707,19 +6707,19 @@
         <v>636.2158862857847</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596885</v>
+        <v>928.5677735154889</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1216.065002438138</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1462.454972917762</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1659.683256077141</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1783.037972197049</v>
       </c>
       <c r="R32" t="n">
         <v>1783.037972197049</v>
@@ -6731,7 +6731,7 @@
         <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178542</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
         <v>1617.62043735199</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F33" t="n">
         <v>35.66075944394099</v>
@@ -6789,40 +6789,40 @@
         <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.53862760296</v>
+        <v>577.5386276029599</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219943</v>
+        <v>709.2395672219942</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800942</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800942</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800942</v>
+        <v>656.7840736224399</v>
       </c>
       <c r="S33" t="n">
-        <v>744.5731793679374</v>
+        <v>656.7840736224399</v>
       </c>
       <c r="T33" t="n">
-        <v>527.4308322916846</v>
+        <v>439.6417265461871</v>
       </c>
       <c r="U33" t="n">
-        <v>504.2837523866104</v>
+        <v>200.0174139230673</v>
       </c>
       <c r="V33" t="n">
-        <v>261.2040342902445</v>
+        <v>100.7763180074886</v>
       </c>
       <c r="W33" t="n">
-        <v>208.2826977385815</v>
+        <v>47.8549814558256</v>
       </c>
       <c r="X33" t="n">
-        <v>205.2519360733236</v>
+        <v>44.82421979056765</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="34">
@@ -6841,43 +6841,43 @@
         <v>35.66075944394099</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394099</v>
+        <v>107.5707154307948</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394099</v>
+        <v>107.5707154307948</v>
       </c>
       <c r="G34" t="n">
-        <v>80.81632805301662</v>
+        <v>107.5707154307948</v>
       </c>
       <c r="H34" t="n">
-        <v>80.81632805301662</v>
+        <v>107.5707154307948</v>
       </c>
       <c r="I34" t="n">
-        <v>80.81632805301662</v>
+        <v>107.5707154307948</v>
       </c>
       <c r="J34" t="n">
-        <v>80.81632805301662</v>
+        <v>107.5707154307948</v>
       </c>
       <c r="K34" t="n">
-        <v>80.81632805301662</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="L34" t="n">
-        <v>80.81632805301662</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="M34" t="n">
-        <v>80.81632805301662</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="N34" t="n">
-        <v>84.98883956751962</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="R34" t="n">
         <v>260.0540801966771</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361094</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.0833815513517</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338509</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998703</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57576979998703</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4319710763154</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="L35" t="n">
-        <v>356.1528135570755</v>
+        <v>472.0178398246886</v>
       </c>
       <c r="M35" t="n">
-        <v>437.0147126440227</v>
+        <v>552.8797389116359</v>
       </c>
       <c r="N35" t="n">
-        <v>694.8709139203511</v>
+        <v>628.2076320473282</v>
       </c>
       <c r="O35" t="n">
-        <v>952.7271151966795</v>
+        <v>662.4282667399958</v>
       </c>
       <c r="P35" t="n">
-        <v>952.7271151966795</v>
+        <v>768.1251746247292</v>
       </c>
       <c r="Q35" t="n">
-        <v>952.7271151966795</v>
+        <v>948.6491315313875</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0563429962468</v>
+        <v>948.6491315313875</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>992.7458834922298</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.529484598414</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413451</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.417523378277</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447606</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>309.3203746247173</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="C36" t="n">
-        <v>171.0839399764981</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="D36" t="n">
-        <v>171.0839399764981</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="E36" t="n">
-        <v>171.0839399764981</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
-        <v>171.0839399764981</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
         <v>58.80019076548265</v>
@@ -7029,37 +7029,37 @@
         <v>562.7147329086213</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276557</v>
+        <v>694.4156725276556</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857556</v>
+        <v>778.0407857857555</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857556</v>
+        <v>771.101941468421</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857556</v>
+        <v>771.101941468421</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857556</v>
+        <v>771.101941468421</v>
       </c>
       <c r="T36" t="n">
-        <v>778.0407857857556</v>
+        <v>771.101941468421</v>
       </c>
       <c r="U36" t="n">
-        <v>778.0407857857556</v>
+        <v>531.4776288453012</v>
       </c>
       <c r="V36" t="n">
-        <v>534.9610676893897</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="W36" t="n">
-        <v>534.9610676893897</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="X36" t="n">
-        <v>534.9610676893897</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="Y36" t="n">
-        <v>309.3203746247173</v>
+        <v>355.1801848671561</v>
       </c>
     </row>
     <row r="37">
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
         <v>39.27276256078068</v>
@@ -7132,13 +7132,13 @@
         <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361098</v>
+        <v>623.01906753611</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513523</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338513</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.817910263402</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83686474960229</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="K38" t="n">
-        <v>278.6930660259306</v>
+        <v>369.7904872312612</v>
       </c>
       <c r="L38" t="n">
-        <v>536.5492673022591</v>
+        <v>416.5113297120213</v>
       </c>
       <c r="M38" t="n">
-        <v>794.4054685785875</v>
+        <v>497.3732287989685</v>
       </c>
       <c r="N38" t="n">
-        <v>869.7333617142798</v>
+        <v>572.7011219346608</v>
       </c>
       <c r="O38" t="n">
-        <v>903.9539964069476</v>
+        <v>606.9217566273285</v>
       </c>
       <c r="P38" t="n">
-        <v>903.9539964069476</v>
+        <v>861.3192805734566</v>
       </c>
       <c r="Q38" t="n">
-        <v>992.7458834922296</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="R38" t="n">
-        <v>992.7458834922296</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7458834922296</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
         <v>1041.843237480115</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984145</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413455</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447612</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.81238024141368</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="C39" t="n">
-        <v>89.81238024141368</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="D39" t="n">
-        <v>89.81238024141368</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="E39" t="n">
-        <v>89.81238024141368</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83686474960229</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83686474960229</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960229</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960229</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
         <v>58.80019076548265</v>
@@ -7266,37 +7266,37 @@
         <v>562.7147329086213</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276557</v>
+        <v>694.4156725276556</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857556</v>
+        <v>778.0407857857555</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857556</v>
+        <v>771.101941468421</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857556</v>
+        <v>635.0213346107669</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857556</v>
+        <v>635.0213346107669</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857556</v>
+        <v>417.8789875345141</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857556</v>
+        <v>417.8789875345141</v>
       </c>
       <c r="V39" t="n">
-        <v>534.9610676893897</v>
+        <v>417.8789875345141</v>
       </c>
       <c r="W39" t="n">
-        <v>534.9610676893897</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="X39" t="n">
-        <v>315.453073306086</v>
+        <v>154.7872608981214</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.81238024141368</v>
+        <v>154.7872608981214</v>
       </c>
     </row>
     <row r="40">
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="R40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
         <v>39.27276256078068</v>
@@ -7369,13 +7369,13 @@
         <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753158</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564241</v>
+        <v>708.127638956425</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465744</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E41" t="n">
-        <v>478.600837670655</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660717</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6518442323785</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L41" t="n">
-        <v>475.9723582364599</v>
+        <v>306.7265692632487</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538335</v>
+        <v>626.1881398735172</v>
       </c>
       <c r="N41" t="n">
-        <v>918.251231312847</v>
+        <v>940.1157045325308</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055148</v>
+        <v>1212.93601074852</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901258</v>
+        <v>1344.273985695033</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1344.273985695033</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1389.940927289811</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262767</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200267</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674156</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
         <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785751</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.848042318101</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>532.8686998785756</v>
+        <v>102.8372810287581</v>
       </c>
       <c r="C42" t="n">
-        <v>343.4564256115393</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D42" t="n">
-        <v>343.4564256115393</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E42" t="n">
-        <v>169.8932217329538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.0293014998857</v>
+        <v>66.02930149988572</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282598</v>
@@ -7503,37 +7503,37 @@
         <v>569.9438436430244</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620588</v>
+        <v>701.6447832620587</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201587</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028243</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028243</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028243</v>
+        <v>591.7438446817704</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028243</v>
+        <v>591.7438446817704</v>
       </c>
       <c r="U42" t="n">
-        <v>778.3310522028243</v>
+        <v>591.7438446817704</v>
       </c>
       <c r="V42" t="n">
-        <v>778.3310522028243</v>
+        <v>591.7438446817704</v>
       </c>
       <c r="W42" t="n">
-        <v>752.3766942618793</v>
+        <v>322.3452754120617</v>
       </c>
       <c r="X42" t="n">
-        <v>532.8686998785756</v>
+        <v>102.8372810287581</v>
       </c>
       <c r="Y42" t="n">
-        <v>532.8686998785756</v>
+        <v>102.8372810287581</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T43" t="n">
         <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323075</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931775</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400535</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7649,31 +7649,31 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0057267824887</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L44" t="n">
         <v>545.32624078657</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7878113968386</v>
+        <v>813.1335070153432</v>
       </c>
       <c r="N44" t="n">
-        <v>940.1157045325309</v>
+        <v>1127.061071674357</v>
       </c>
       <c r="O44" t="n">
-        <v>1120.615366799289</v>
+        <v>1161.281706367025</v>
       </c>
       <c r="P44" t="n">
-        <v>1344.273985695032</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.273985695032</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.940927289811</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.08828710952486</v>
+        <v>283.6562831008409</v>
       </c>
       <c r="C45" t="n">
-        <v>73.08828710952486</v>
+        <v>283.6562831008409</v>
       </c>
       <c r="D45" t="n">
-        <v>73.08828710952486</v>
+        <v>122.8761668618726</v>
       </c>
       <c r="E45" t="n">
-        <v>73.08828710952486</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F45" t="n">
-        <v>73.08828710952486</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G45" t="n">
-        <v>73.08828710952486</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H45" t="n">
-        <v>73.08828710952486</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I45" t="n">
         <v>28.06597548400536</v>
@@ -7734,43 +7734,43 @@
         <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322652</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N45" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620588</v>
+        <v>701.6447832620587</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201587</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201587</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201587</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201587</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="T45" t="n">
-        <v>568.1275494439059</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="U45" t="n">
-        <v>568.1275494439059</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="V45" t="n">
-        <v>568.1275494439059</v>
+        <v>535.2513341064582</v>
       </c>
       <c r="W45" t="n">
-        <v>298.7289801741972</v>
+        <v>509.2969761655132</v>
       </c>
       <c r="X45" t="n">
-        <v>298.7289801741972</v>
+        <v>509.2969761655132</v>
       </c>
       <c r="Y45" t="n">
-        <v>73.08828710952486</v>
+        <v>283.6562831008409</v>
       </c>
     </row>
     <row r="46">
@@ -7798,37 +7798,37 @@
         <v>28.06597548400536</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>102.4994933292067</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>102.4994933292067</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>102.4994933292067</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400536</v>
+        <v>102.4994933292067</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400536</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400536</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="S46" t="n">
         <v>130.133623560695</v>
@@ -8532,10 +8532,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>176.4735084131581</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,13 +9726,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23261,16 +23261,16 @@
         <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>36.55305216769852</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>134.6309165699309</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>7.283134698607559</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613493</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518401</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
@@ -23504,16 +23504,16 @@
         <v>4.832714589321228</v>
       </c>
       <c r="F14" t="n">
-        <v>75.75528704865198</v>
+        <v>59.02200581935293</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095807</v>
+        <v>52.19197549033362</v>
       </c>
       <c r="H14" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240826</v>
+        <v>62.86150506240827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929905</v>
       </c>
       <c r="S14" t="n">
         <v>49.36873040538038</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88193.19951764597</v>
+        <v>88193.19951764596</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764596</v>
+        <v>88193.19951764592</v>
       </c>
       <c r="D2" t="n">
         <v>88244.131571915</v>
       </c>
       <c r="E2" t="n">
-        <v>75973.54287491331</v>
+        <v>75973.54287491336</v>
       </c>
       <c r="F2" t="n">
-        <v>75973.54287491336</v>
+        <v>75973.54287491337</v>
       </c>
       <c r="G2" t="n">
+        <v>88371.85488585367</v>
+      </c>
+      <c r="H2" t="n">
         <v>88371.8548858537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>88371.85488585368</v>
+      </c>
+      <c r="J2" t="n">
         <v>88371.85488585373</v>
       </c>
-      <c r="I2" t="n">
-        <v>88371.85488585365</v>
-      </c>
-      <c r="J2" t="n">
-        <v>88371.85488585374</v>
-      </c>
       <c r="K2" t="n">
-        <v>88371.85488585371</v>
+        <v>88371.85488585373</v>
       </c>
       <c r="L2" t="n">
-        <v>88371.85488585375</v>
+        <v>88371.85488585373</v>
       </c>
       <c r="M2" t="n">
         <v>88371.85488585361</v>
       </c>
       <c r="N2" t="n">
-        <v>88371.85488585361</v>
+        <v>88371.85488585365</v>
       </c>
       <c r="O2" t="n">
+        <v>88371.85488585368</v>
+      </c>
+      <c r="P2" t="n">
         <v>88371.8548858537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>88371.85488585367</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96101.69331262477</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923227</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592437</v>
+        <v>72254.91485924376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,22 +26439,22 @@
         <v>366826.3686005261</v>
       </c>
       <c r="J4" t="n">
-        <v>367614.5661588978</v>
+        <v>367614.5661588977</v>
       </c>
       <c r="K4" t="n">
         <v>367614.5661588978</v>
       </c>
       <c r="L4" t="n">
-        <v>367599.7761915191</v>
+        <v>367599.7761915192</v>
       </c>
       <c r="M4" t="n">
-        <v>366789.8388182006</v>
+        <v>366789.8388182007</v>
       </c>
       <c r="N4" t="n">
-        <v>366789.8388182006</v>
+        <v>366789.8388182007</v>
       </c>
       <c r="O4" t="n">
-        <v>367176.9014819183</v>
+        <v>367176.9014819184</v>
       </c>
       <c r="P4" t="n">
         <v>367176.9014819184</v>
@@ -26476,7 +26476,7 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
         <v>28642.95693774778</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016351</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
         <v>47449.6772201635</v>
@@ -26506,7 +26506,7 @@
         <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887321</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
         <v>43797.12782887323</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354514.5235355693</v>
+        <v>-354518.9899197745</v>
       </c>
       <c r="C6" t="n">
-        <v>-354514.5235355693</v>
+        <v>-354518.9899197745</v>
       </c>
       <c r="D6" t="n">
-        <v>-355489.7152731342</v>
+        <v>-355492.9083559825</v>
       </c>
       <c r="E6" t="n">
-        <v>-528014.0297988527</v>
+        <v>-528323.9875991264</v>
       </c>
       <c r="F6" t="n">
-        <v>-248887.9146201386</v>
+        <v>-249197.872420412</v>
       </c>
       <c r="G6" t="n">
         <v>-412566.37789963</v>
       </c>
       <c r="H6" t="n">
-        <v>-317126.8524804965</v>
+        <v>-317126.8524804966</v>
       </c>
       <c r="I6" t="n">
         <v>-317126.8524804966</v>
       </c>
       <c r="J6" t="n">
-        <v>-470188.6715000869</v>
+        <v>-470188.6715000868</v>
       </c>
       <c r="K6" t="n">
         <v>-326692.3884932076</v>
       </c>
       <c r="L6" t="n">
-        <v>-422654.3622011382</v>
+        <v>-422654.3622011383</v>
       </c>
       <c r="M6" t="n">
-        <v>-365528.645823357</v>
+        <v>-365528.6458233572</v>
       </c>
       <c r="N6" t="n">
         <v>-319331.2795310343</v>
       </c>
       <c r="O6" t="n">
-        <v>-394857.0892841815</v>
+        <v>-394857.0892841817</v>
       </c>
       <c r="P6" t="n">
         <v>-322602.1744249379</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530678</v>
@@ -26701,13 +26701,13 @@
         <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>101.1713840758394</v>
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
         <v>188.4979333192471</v>
@@ -26805,10 +26805,10 @@
         <v>188.4979333192471</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892759</v>
@@ -26820,13 +26820,13 @@
         <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500669</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
         <v>350.824693550067</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.18534375008431</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>120.127116640781</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540338</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003821</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.18534375008431</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>17.12047468788361</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.70860737949914</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.5512447576523</v>
       </c>
       <c r="C9" t="n">
-        <v>184.700252441442</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>168.6283221997862</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27947,13 +27947,13 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.6379672828833</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>70.21701454982455</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.4496712753888</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>214.1136647994571</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.1850364940121</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>31.06659347416992</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>15.09197235108879</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742195</v>
+        <v>158.7989974262431</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>45.10264168485877</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161037</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>50.07290924399777</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>78.20665025776447</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022348</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.88635281477846</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,67 +28254,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530678</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I13" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>136.0996685767617</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21686539889345</v>
+        <v>26.25300664533519</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28348,28 +28348,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459406</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.75624008767551</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4091523741033</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>149.6743412741499</v>
+        <v>15.09197235108879</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.01713032257629</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
@@ -28412,7 +28412,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>78.53040382450425</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161048</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624315</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530678</v>
@@ -28466,10 +28466,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>78.20665025776447</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022348</v>
       </c>
       <c r="Y15" t="n">
         <v>178.1482641530678</v>
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1482641530678</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530678</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>93.73828292744581</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
         <v>178.1482641530678</v>
@@ -28518,16 +28518,16 @@
         <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O16" t="n">
-        <v>37.4788839977768</v>
+        <v>77.18428483471465</v>
       </c>
       <c r="P16" t="n">
         <v>58.47859890024888</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28582,13 +28582,13 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J17" t="n">
         <v>76.78161896459406</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2251254655481</v>
+        <v>6.727192146300993</v>
       </c>
       <c r="L17" t="n">
         <v>141.3051631366612</v>
@@ -28600,16 +28600,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>74.47989841905112</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108878</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q17" t="n">
         <v>89.71173703742198</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
         <v>227.5169945584482</v>
@@ -28618,7 +28618,7 @@
         <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>273.2649298064327</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269845</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.741732935191692</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
@@ -28694,13 +28694,13 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624315</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>66.32110678187547</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615512</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28755,7 +28755,7 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O19" t="n">
         <v>37.4788839977768</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J20" t="n">
         <v>265.2795522838412</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300986</v>
+        <v>195.2251254655481</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,16 +28840,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>104.5084558267566</v>
+        <v>15.09197235108879</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742198</v>
+        <v>219.5649908185049</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
         <v>222.4658813998193</v>
@@ -28858,16 +28858,16 @@
         <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="21">
@@ -28883,16 +28883,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>137.0099568361922</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757188</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624315</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>52.15098759615509</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>260.755736827637</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.81498112022345</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28992,7 +28992,7 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O22" t="n">
         <v>37.4788839977768</v>
@@ -29035,55 +29035,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J23" t="n">
-        <v>180.1575281462032</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300986</v>
+        <v>59.25510461766908</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108878</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
@@ -29095,16 +29095,16 @@
         <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>22.8134674677305</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>148.5341735199077</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624307</v>
+        <v>26.47299028624315</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615512</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022339</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29229,7 +29229,7 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O25" t="n">
         <v>37.4788839977768</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>17.03302064465549</v>
+        <v>137.0142100411248</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="28">
@@ -29433,10 +29433,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.484750524001</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>195.8270637438163</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29451,7 +29451,7 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
         <v>120.239607582909</v>
@@ -29463,43 +29463,43 @@
         <v>32.15181624817889</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889346</v>
+        <v>102.7822438366237</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O28" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024888</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.484750524001</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="W30" t="n">
-        <v>181.991136610294</v>
-      </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>208.6238119646599</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29697,25 +29697,25 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L31" t="n">
-        <v>213.484750524001</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889346</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O31" t="n">
-        <v>37.4788839977768</v>
+        <v>173.72786013058</v>
       </c>
       <c r="P31" t="n">
         <v>58.47859890024888</v>
       </c>
       <c r="Q31" t="n">
-        <v>178.4555817493491</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4299611556341</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29779,10 +29779,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
+        <v>213.6262506492494</v>
+      </c>
+      <c r="N32" t="n">
         <v>214.3124603908652</v>
-      </c>
-      <c r="N32" t="n">
-        <v>194.195335640751</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908652</v>
@@ -29794,7 +29794,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S32" t="n">
         <v>214.3124603908652</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,22 +29870,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161048</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>143.7822052189691</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>142.4002359589794</v>
       </c>
       <c r="W33" t="n">
         <v>214.3124603908652</v>
@@ -29913,13 +29913,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3124603908652</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
         <v>165.8243976546666</v>
@@ -29931,7 +29931,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918999</v>
+        <v>210.1710816775774</v>
       </c>
       <c r="L34" t="n">
         <v>32.15181624817889</v>
@@ -29940,10 +29940,10 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N34" t="n">
-        <v>20.73481546473893</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O34" t="n">
-        <v>214.3124603908652</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P34" t="n">
         <v>58.47859890024888</v>
@@ -29952,7 +29952,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4299611556341</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30004,43 +30004,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
+        <v>241.0097692154761</v>
+      </c>
+      <c r="J35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J35" t="n">
-        <v>76.78161896459406</v>
-      </c>
       <c r="K35" t="n">
-        <v>267.1880015163296</v>
+        <v>6.727192146300993</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2680391874428</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3720284248849</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006673</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108878</v>
+        <v>121.8565257700114</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742198</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
-        <v>213.3959168970813</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30065,19 +30065,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>50.66408122262888</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
         <v>125.7355245857741</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30119,10 +30119,10 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>66.11445137703859</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>180.7391521845578</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30177,7 +30177,7 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O37" t="n">
         <v>37.4788839977768</v>
@@ -30195,7 +30195,7 @@
         <v>235.4380443661806</v>
       </c>
       <c r="T37" t="n">
-        <v>223.761558450323</v>
+        <v>259.3180603841701</v>
       </c>
       <c r="U37" t="n">
         <v>272.0591682562687</v>
@@ -30241,19 +30241,19 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.009769215476</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459406</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1880015163296</v>
+        <v>132.8786503609639</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874427</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236173</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.09197235108878</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q38" t="n">
-        <v>179.4005118710402</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
         <v>194.8815453823669</v>
@@ -30274,7 +30274,7 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505414926498</v>
@@ -30311,10 +30311,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>90.53767878303506</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>68.60888267149549</v>
       </c>
       <c r="H39" t="n">
         <v>125.7355245857741</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.4751703839026</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982891</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30414,7 +30414,7 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O40" t="n">
         <v>37.4788839977768</v>
@@ -30426,13 +30426,13 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4299611556341</v>
+        <v>238.9864630894812</v>
       </c>
       <c r="S40" t="n">
         <v>235.4380443661806</v>
       </c>
       <c r="T40" t="n">
-        <v>259.3180603841701</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
         <v>272.0591682562687</v>
@@ -30481,28 +30481,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459406</v>
+      </c>
+      <c r="K41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K41" t="n">
-        <v>6.727192146300986</v>
-      </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M41" t="n">
-        <v>47.96910033376402</v>
       </c>
       <c r="N41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>147.7565935091827</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
@@ -30511,7 +30511,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30539,28 +30539,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>113.4945590350607</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>144.1499899192435</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30651,13 +30651,13 @@
         <v>25.21686539889346</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6187917901799</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O43" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024888</v>
+        <v>144.3290225559945</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30669,7 +30669,7 @@
         <v>235.4380443661806</v>
       </c>
       <c r="T43" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U43" t="n">
         <v>241.009769215476</v>
@@ -30727,13 +30727,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
+        <v>188.8337041836626</v>
+      </c>
+      <c r="N44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>147.7565935091824</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
@@ -30742,13 +30742,13 @@
         <v>89.71173703742198</v>
       </c>
       <c r="R44" t="n">
+        <v>194.8815453823669</v>
+      </c>
+      <c r="S44" t="n">
+        <v>227.5169945584482</v>
+      </c>
+      <c r="T44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="S44" t="n">
-        <v>241.009769215476</v>
-      </c>
-      <c r="T44" t="n">
-        <v>222.4658813998193</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30779,10 +30779,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>77.96548237571108</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30794,10 +30794,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>62.79132183472306</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161048</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30827,16 +30827,16 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30870,7 +30870,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>165.8243976546666</v>
+        <v>241.009769215476</v>
       </c>
       <c r="I46" t="n">
         <v>164.852968067965</v>
@@ -30882,13 +30882,13 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817889</v>
+        <v>54.49335425897256</v>
       </c>
       <c r="M46" t="n">
         <v>25.21686539889346</v>
       </c>
       <c r="N46" t="n">
-        <v>119.61879179018</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O46" t="n">
         <v>37.4788839977768</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661806</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246056</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032863</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556019</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521934</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610824</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M12" t="n">
-        <v>55.1384043213325</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427552</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935659</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971363</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014378</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679431</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590778</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H14" t="n">
         <v>4.165312310217849</v>
@@ -31996,40 +31996,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L14" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R14" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K15" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N15" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O15" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P15" t="n">
         <v>41.55471433862167</v>
@@ -32099,13 +32099,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S15" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375087</v>
@@ -32151,7 +32151,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602956</v>
@@ -32163,13 +32163,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N16" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P16" t="n">
         <v>22.06531301221257</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R16" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217849</v>
@@ -32233,40 +32233,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L17" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R17" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K18" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N18" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O18" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P18" t="n">
         <v>41.55471433862167</v>
@@ -32336,13 +32336,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S18" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375087</v>
@@ -32388,7 +32388,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602956</v>
@@ -32400,13 +32400,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N19" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P19" t="n">
         <v>22.06531301221257</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R19" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217849</v>
@@ -32470,40 +32470,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L20" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R20" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K21" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N21" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O21" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P21" t="n">
         <v>41.55471433862167</v>
@@ -32573,13 +32573,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S21" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375087</v>
@@ -32625,7 +32625,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602956</v>
@@ -32637,13 +32637,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N22" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P22" t="n">
         <v>22.06531301221257</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R22" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217849</v>
@@ -32707,40 +32707,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L23" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R23" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K24" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N24" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O24" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P24" t="n">
         <v>41.55471433862167</v>
@@ -32810,13 +32810,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S24" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375087</v>
@@ -32862,7 +32862,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602956</v>
@@ -32874,13 +32874,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N25" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P25" t="n">
         <v>22.06531301221257</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217849</v>
@@ -32944,40 +32944,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L26" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R26" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K27" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N27" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O27" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P27" t="n">
         <v>41.55471433862167</v>
@@ -33047,13 +33047,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S27" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375087</v>
@@ -33099,7 +33099,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602956</v>
@@ -33111,13 +33111,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N28" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P28" t="n">
         <v>22.06531301221257</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H29" t="n">
         <v>4.165312310217849</v>
@@ -33181,40 +33181,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L29" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R29" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K30" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N30" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O30" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P30" t="n">
         <v>41.55471433862167</v>
@@ -33284,13 +33284,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S30" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375087</v>
@@ -33336,7 +33336,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602956</v>
@@ -33348,13 +33348,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N31" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P31" t="n">
         <v>22.06531301221257</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H32" t="n">
         <v>4.165312310217849</v>
@@ -33418,40 +33418,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L32" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R32" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K33" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N33" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O33" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P33" t="n">
         <v>41.55471433862167</v>
@@ -33521,13 +33521,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S33" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375087</v>
@@ -33573,7 +33573,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602956</v>
@@ -33585,13 +33585,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N34" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P34" t="n">
         <v>22.06531301221257</v>
@@ -33600,16 +33600,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R34" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H35" t="n">
         <v>4.165312310217849</v>
@@ -33655,40 +33655,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L35" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R35" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K36" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N36" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O36" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P36" t="n">
         <v>41.55471433862167</v>
@@ -33758,13 +33758,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S36" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375087</v>
@@ -33810,7 +33810,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602956</v>
@@ -33822,13 +33822,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N37" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P37" t="n">
         <v>22.06531301221257</v>
@@ -33837,16 +33837,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R37" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H38" t="n">
         <v>4.165312310217849</v>
@@ -33892,40 +33892,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L38" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R38" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K39" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N39" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O39" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P39" t="n">
         <v>41.55471433862167</v>
@@ -33995,13 +33995,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S39" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375087</v>
@@ -34047,7 +34047,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602956</v>
@@ -34059,13 +34059,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N40" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P40" t="n">
         <v>22.06531301221257</v>
@@ -34074,16 +34074,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R40" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H41" t="n">
         <v>4.165312310217849</v>
@@ -34129,40 +34129,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L41" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R41" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34205,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K42" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N42" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O42" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P42" t="n">
         <v>41.55471433862167</v>
@@ -34232,13 +34232,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S42" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375087</v>
@@ -34284,7 +34284,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602956</v>
@@ -34296,13 +34296,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N43" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P43" t="n">
         <v>22.06531301221257</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R43" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H44" t="n">
         <v>4.165312310217849</v>
@@ -34366,40 +34366,40 @@
         <v>15.68003933501025</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645941</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246054</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L44" t="n">
         <v>64.18332941727851</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032859</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401896</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556016</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521931</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178815</v>
       </c>
       <c r="R44" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610819</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705385</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729619</v>
+        <v>7.492409103729618</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K45" t="n">
         <v>35.1398759200017</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447576</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133248</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N45" t="n">
         <v>56.59775381427549</v>
       </c>
       <c r="O45" t="n">
-        <v>51.7758874713402</v>
+        <v>51.77588747134019</v>
       </c>
       <c r="P45" t="n">
         <v>41.55471433862167</v>
@@ -34469,13 +34469,13 @@
         <v>27.77822605795501</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S45" t="n">
         <v>4.042083127935657</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971358</v>
+        <v>0.8771368109971357</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375087</v>
@@ -34521,7 +34521,7 @@
         <v>1.622059239773295</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014375</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602956</v>
@@ -34533,13 +34533,13 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N46" t="n">
         <v>27.9183263630919</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P46" t="n">
         <v>22.06531301221257</v>
@@ -34548,16 +34548,16 @@
         <v>15.27687899545175</v>
       </c>
       <c r="R46" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679428</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>3.069987028295762</v>
@@ -35413,22 +35413,22 @@
         <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641139</v>
+        <v>81.67868594641135</v>
       </c>
       <c r="N11" t="n">
-        <v>107.1553744193137</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936136</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>69.08726038882114</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,31 +35550,31 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084281</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462115</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915389</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840122</v>
+        <v>12.32386649840127</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.86006099385278</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9964479048889</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.036141246441728</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.93127818937863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
         <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258595</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641136</v>
+        <v>174.4349260340869</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4979333192471</v>
+        <v>76.08878094514377</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936133</v>
+        <v>34.56629766936132</v>
       </c>
       <c r="P14" t="n">
-        <v>134.5823689230611</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564582</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
         <v>84.46981137181805</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69108318109545</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235709</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084281</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>39.22138193462115</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915332</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840122</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510276</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>26.70830278825582</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
         <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>39.70540083693784</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937857</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641135</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514377</v>
       </c>
       <c r="O17" t="n">
-        <v>109.0461960884125</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446177</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>23.11438831378299</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35975,7 +35975,7 @@
         <v>188.4979333192471</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
         <v>84.46981137181805</v>
@@ -36115,37 +36115,37 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150836</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="L20" t="n">
         <v>47.19277018258595</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641135</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514377</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936133</v>
+        <v>34.56629766936132</v>
       </c>
       <c r="P20" t="n">
-        <v>89.41648347566786</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>129.8532537810829</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
         <v>84.46981137181805</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43790171150842</v>
       </c>
       <c r="J23" t="n">
-        <v>103.3759091816092</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>52.52791247136809</v>
       </c>
       <c r="L23" t="n">
         <v>47.19277018258595</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641136</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N23" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514377</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936133</v>
+        <v>34.56629766936132</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5661255446176</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181817</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583776999</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065868</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729121</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163414</v>
+        <v>18.60320514163408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
         <v>84.46981137181805</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.02756955202864</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>50.64441349310556</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63178245603594</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>77.56537843773027</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.006151623752</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26776456031176</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691448</v>
@@ -36923,7 +36923,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
         <v>84.46981137181805</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>136.2489761328033</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.23859578565982</v>
+        <v>86.26776456031176</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.05478936836687</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.3049365956608</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858948</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602265</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849838</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P33" t="n">
         <v>84.46981137181805</v>
@@ -37209,13 +37209,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>72.63631917864024</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.61168546371276</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>143.1411015383874</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.214658095457576</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>176.8335763930884</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.8824992352311</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079267</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258595</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641135</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4608093700286</v>
+        <v>76.08878094514377</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700286</v>
+        <v>34.56629766936132</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>106.7645534189226</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R35" t="n">
-        <v>18.51437151471447</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P36" t="n">
         <v>84.46981137181805</v>
@@ -37443,55 +37443,55 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079266</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700286</v>
+        <v>126.1514582146629</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700286</v>
+        <v>81.67868594641135</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514377</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936133</v>
+        <v>34.56629766936132</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.68877483361823</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P39" t="n">
         <v>84.46981137181805</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M41" t="n">
-        <v>129.6477862801754</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936133</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>132.6646211580939</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.12822383310919</v>
@@ -37807,7 +37807,7 @@
         <v>13.49277465702786</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P42" t="n">
         <v>84.46981137181805</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>85.85042365574557</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2825770691751</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
         <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>270.5123901300739</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514378</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>182.3228911785437</v>
+        <v>34.56629766936132</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643872</v>
@@ -38038,13 +38038,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310919</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702786</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
         <v>84.46981137181805</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>75.18537156080946</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>22.34153801079367</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295477</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
